--- a/biology/Mycologie/Xerocomellus_porosporus/Xerocomellus_porosporus.xlsx
+++ b/biology/Mycologie/Xerocomellus_porosporus/Xerocomellus_porosporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet fissuré
 Xerocomellus porosporus, le Bolet fissuré, est une espèce de champignon (Fungi) basidiomycète du genre Xerocomellus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par sa chair gris noirâtre dans la moitié inférieure de son pied à la coupe.
@@ -512,60 +524,55 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus porosporus (Imler ex Watling) Šutara[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus porosporus Imler ex Watling[1].
-Synonymes
-Xerocomellus porosporus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus porosporus (Imler ex Watling) Šutara.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus porosporus Imler ex Watling.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Xerocomellus porosporus a pour synonymes :
 Boletus porosporus var. americanus A.H.Sm. &amp; Thiers
 Boletus porosporus Imler
 Boletus porosporus Imler ex G.Moreno &amp; Bon
 Boletus porosporus Imler ex Watling
 Xerocomus porosporus (Imler ex Watling) Contu
-Xerocomus porosporus Imler
-Phylogénie
-Ce bolet a été décrit et a reçu le nom scientifique de Xerocomus porosporus en 1958 par Louis Imler (1900 - 1993), fondateur du Cercle Mycologique d'Anvers. Le nom scientifique actuellement accepté de Xerocomellus porosporus date d'une publication de 2008 du mycologue tchèque Josef Šutara, qui a étudié en détail les caractéristiques morphologiques de ce bolet et d'autres espèces de bolets étroitement apparentés - depuis lors confirmées par des études d'ADN.
-Étymologie
-L'épithète spécifique porosporus fait référence aux spores tronquées distinctives de cette espèce.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Xerocomellus_porosporus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomellus porosporus, le Bolet fissuré, sont les suivantes :
-Son chapeau mesure de 3 à 8 cm, en général brun terne, brun olive à brun-gris noirâtre, mais aussi parfois rouge, se craquelant typiquement très tôt, en tous sens et laissant voir la chair blanche[2].
-L'hyménophore présente des tubes jaunâtres, puis jaune olivâtre terne, bleuissants. Les pores sont concolores aux tubes[2].
-Son stipe mesure de 3 à 8 cm x 0,5 à 2 cm, jaunâtre terne au sommet mais gris olivâtre fuligineux, voire gris noirâtre en allant vers la base[2].
-La chair est pâle, blanchâtre ou jaunâtre, parfois tachée de rouge vineux, gris fuligineux à gris noirâtre dans la base du pied, faiblement bleuissante[2].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 15 μm x 4,5 à 6,5 μm, elles sont allongées-fusoïdes, tronquées au sommet[2].
-</t>
+Xerocomus porosporus Imler</t>
         </is>
       </c>
     </row>
@@ -590,12 +597,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bolet a été décrit et a reçu le nom scientifique de Xerocomus porosporus en 1958 par Louis Imler (1900 - 1993), fondateur du Cercle Mycologique d'Anvers. Le nom scientifique actuellement accepté de Xerocomellus porosporus date d'une publication de 2008 du mycologue tchèque Josef Šutara, qui a étudié en détail les caractéristiques morphologiques de ce bolet et d'autres espèces de bolets étroitement apparentés - depuis lors confirmées par des études d'ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique porosporus fait référence aux spores tronquées distinctives de cette espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Xerocomellus porosporus, le Bolet fissuré, sont les suivantes :
+Son chapeau mesure de 3 à 8 cm, en général brun terne, brun olive à brun-gris noirâtre, mais aussi parfois rouge, se craquelant typiquement très tôt, en tous sens et laissant voir la chair blanche.
+L'hyménophore présente des tubes jaunâtres, puis jaune olivâtre terne, bleuissants. Les pores sont concolores aux tubes.
+Son stipe mesure de 3 à 8 cm x 0,5 à 2 cm, jaunâtre terne au sommet mais gris olivâtre fuligineux, voire gris noirâtre en allant vers la base.
+La chair est pâle, blanchâtre ou jaunâtre, parfois tachée de rouge vineux, gris fuligineux à gris noirâtre dans la base du pied, faiblement bleuissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 15 μm x 4,5 à 6,5 μm, elles sont allongées-fusoïdes, tronquées au sommet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_porosporus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xerocomus marekii est aujourd'hui considéré comme une forme rouge de X. porosporus[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xerocomus marekii est aujourd'hui considéré comme une forme rouge de X. porosporus.
 </t>
         </is>
       </c>
